--- a/Jacobi.xlsx
+++ b/Jacobi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\Excel\Numerical-Computing-Excel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E34C40-7C43-4EB1-9CE0-11D2552AD72D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8FF45-DCE5-4F82-A7DD-91C1554DC89D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{DA5D466D-3D64-4F82-B167-020EAA80FD9F}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,13 +960,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <v>20</v>
@@ -980,13 +980,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
         <v>25</v>
@@ -997,13 +997,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>_xlfn.CONCAT("(",F2,IF(D2&gt;0,"-","+"),IF(D2&gt;0,D2,-D2),$D$1,IF(E2&gt;0,"-","+"),IF(E2&gt;0,E2,-E2),$E$1,")","/",C2)</f>
-        <v>(20-1x2-2x3)/5</v>
+        <v>(20+0x2+0x3)/1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>_xlfn.CONCAT("(",F3,IF(C3&gt;0,"-","+"),IF(C3&gt;0,C3,-C3),$C$1,IF(E3&gt;0,"-","+"),IF(E3&gt;0,E3,-E3),$E$1,")","/",D3)</f>
-        <v>(25+1x1-2x3)/6</v>
+        <v>(25+0x1+0x3)/1</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>3</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>_xlfn.CONCAT("(",F4,IF(C4&gt;0,"-","+"),IF(C4&gt;0,C4,-C4),$C$1,IF(D4&gt;0,"-","+"),IF(D4&gt;0,D4,-D4),$D$1,")","/",E4)</f>
-        <v>(30-2x1+2x2)/5</v>
+        <v>(30+0x1+0x2)/1</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>3</v>
@@ -1113,15 +1113,15 @@
       </c>
       <c r="C14" s="6" t="str">
         <f>FIXED(($F$2-($D$2 * D13)-($E$2 * E13))/$C$2,$I$2)</f>
-        <v>4.000</v>
+        <v>20.000</v>
       </c>
       <c r="D14" s="6" t="str">
         <f>FIXED(($F$3-($C$3 * C13)-($E$3 * E13))/$D$3,$I$2)</f>
-        <v>4.167</v>
+        <v>25.000</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>FIXED(($F$4-($C$4 * C13)-($D$4 * D13))/$E$4,$I$2)</f>
-        <v>6.000</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -1131,15 +1131,15 @@
       </c>
       <c r="C15" s="6" t="str">
         <f t="shared" ref="C15:C44" si="1">FIXED(($F$2-($D$2 * D14)-($E$2 * E14))/$C$2,$I$2)</f>
-        <v>0.767</v>
+        <v>20.000</v>
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" ref="D15:D44" si="2">FIXED(($F$3-($C$3 * C14)-($E$3 * E14))/$D$3,$I$2)</f>
-        <v>2.833</v>
+        <v>25.000</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" ref="E15:E44" si="3">FIXED(($F$4-($C$4 * C14)-($D$4 * D14))/$E$4,$I$2)</f>
-        <v>6.067</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -1149,15 +1149,15 @@
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>1.007</v>
+        <v>20.000</v>
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.272</v>
+        <v>25.000</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.826</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1167,15 +1167,15 @@
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.815</v>
+        <v>20.000</v>
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.059</v>
+        <v>25.000</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.506</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1185,15 +1185,15 @@
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.986</v>
+        <v>20.000</v>
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.134</v>
+        <v>25.000</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.498</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1203,15 +1203,15 @@
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.974</v>
+        <v>20.000</v>
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.165</v>
+        <v>25.000</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.459</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1221,15 +1221,15 @@
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.983</v>
+        <v>20.000</v>
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.176</v>
+        <v>25.000</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.476</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1239,15 +1239,15 @@
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.974</v>
+        <v>20.000</v>
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.172</v>
+        <v>25.000</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.477</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1257,15 +1257,15 @@
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.479</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1275,15 +1275,15 @@
       </c>
       <c r="C23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.974</v>
+        <v>20.000</v>
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1293,15 +1293,15 @@
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1311,15 +1311,15 @@
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1329,15 +1329,15 @@
       </c>
       <c r="C26" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1347,15 +1347,15 @@
       </c>
       <c r="C27" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1365,15 +1365,15 @@
       </c>
       <c r="C28" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1383,15 +1383,15 @@
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1401,15 +1401,15 @@
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1419,15 +1419,15 @@
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1437,15 +1437,15 @@
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1455,15 +1455,15 @@
       </c>
       <c r="C33" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1473,15 +1473,15 @@
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1491,15 +1491,15 @@
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E35" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1509,15 +1509,15 @@
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E36" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1527,15 +1527,15 @@
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E37" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1545,15 +1545,15 @@
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E38" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1563,15 +1563,15 @@
       </c>
       <c r="C39" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E39" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1581,15 +1581,15 @@
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E40" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1599,15 +1599,15 @@
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E41" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1617,15 +1617,15 @@
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E42" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1635,15 +1635,15 @@
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E43" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -1653,15 +1653,15 @@
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>0.975</v>
+        <v>20.000</v>
       </c>
       <c r="D44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>2.170</v>
+        <v>25.000</v>
       </c>
       <c r="E44" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>6.478</v>
+        <v>30.000</v>
       </c>
     </row>
   </sheetData>
